--- a/Document/GameTable/Character/SoldierCharTable.xlsx
+++ b/Document/GameTable/Character/SoldierCharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15322D36-0333-484D-9558-CD8F83ADEADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800EF0D-8463-4BA6-AD93-8F3290DE8981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{86F341D8-68CA-4ACF-86A3-A401C6774650}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,16 +1042,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
@@ -1068,6 +1072,9 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,6 +1093,9 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1103,7 +1113,9 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1121,7 +1133,9 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>

--- a/Document/GameTable/Character/SoldierCharTable.xlsx
+++ b/Document/GameTable/Character/SoldierCharTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800EF0D-8463-4BA6-AD93-8F3290DE8981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC502A57-264E-46B4-8284-7EBA878A54F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{86F341D8-68CA-4ACF-86A3-A401C6774650}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jabjong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Char1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,23 +63,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BP_Soldier_Jabjong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jabjong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BP_Soldier_Jabjong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP_Soldier_Jabjong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>300</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>500</v>

--- a/Document/GameTable/Character/SoldierCharTable.xlsx
+++ b/Document/GameTable/Character/SoldierCharTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC502A57-264E-46B4-8284-7EBA878A54F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB939DBF-469D-405A-9FD3-9AEF3E4CE8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{86F341D8-68CA-4ACF-86A3-A401C6774650}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,78 @@
   <si>
     <t>BP_Soldier_Jabjong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy1</t>
+  </si>
+  <si>
+    <t>Skel1</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel1</t>
+  </si>
+  <si>
+    <t>Enemy2</t>
+  </si>
+  <si>
+    <t>Skel2</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel2</t>
+  </si>
+  <si>
+    <t>Enemy3</t>
+  </si>
+  <si>
+    <t>Skel3</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel3</t>
+  </si>
+  <si>
+    <t>Enemy4</t>
+  </si>
+  <si>
+    <t>Skel4</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel4</t>
+  </si>
+  <si>
+    <t>Enemy5</t>
+  </si>
+  <si>
+    <t>Skel5</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel5</t>
+  </si>
+  <si>
+    <t>Enemy6</t>
+  </si>
+  <si>
+    <t>Skel6</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Skel6</t>
+  </si>
+  <si>
+    <t>Char4</t>
+  </si>
+  <si>
+    <t>Jabjong5</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Jabjong4</t>
+  </si>
+  <si>
+    <t>Char5</t>
+  </si>
+  <si>
+    <t>Jabjong6</t>
+  </si>
+  <si>
+    <t>BP_Soldier_Jabjong5</t>
   </si>
 </sst>
 </file>
@@ -1039,16 +1111,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29F918-A7B5-4A24-BBDB-528E52E83015}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
@@ -1138,11 +1210,164 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/GameTable/Character/SoldierCharTable.xlsx
+++ b/Document/GameTable/Character/SoldierCharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB939DBF-469D-405A-9FD3-9AEF3E4CE8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48EAC12-0892-457B-811E-9261A1DA32E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{86F341D8-68CA-4ACF-86A3-A401C6774650}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>BP_Soldier_Jabjong5</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1111,24 +1115,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D29F918-A7B5-4A24-BBDB-528E52E83015}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,20 +1141,23 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1157,19 +1165,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,19 +1188,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1197,19 +1211,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1217,19 +1234,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1237,19 +1257,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,113 +1282,131 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>1002</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1003</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1004</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>1005</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1006</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>50</v>
       </c>
     </row>

--- a/Document/GameTable/Character/SoldierCharTable.xlsx
+++ b/Document/GameTable/Character/SoldierCharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\Documents\Unreal Projects\ProjectBS\Document\GameTable\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48EAC12-0892-457B-811E-9261A1DA32E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89497277-6253-488D-9083-7355FA2A0BB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{86F341D8-68CA-4ACF-86A3-A401C6774650}"/>
   </bookViews>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jabjong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jabjong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Char1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jabjong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BP_Soldier_Jabjong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,22 +132,36 @@
     <t>Char4</t>
   </si>
   <si>
-    <t>Jabjong5</t>
-  </si>
-  <si>
     <t>BP_Soldier_Jabjong4</t>
   </si>
   <si>
     <t>Char5</t>
   </si>
   <si>
-    <t>Jabjong6</t>
-  </si>
-  <si>
     <t>BP_Soldier_Jabjong5</t>
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gorila</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1120,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,28 +1140,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1171,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -1182,7 +1184,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1191,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>300</v>
@@ -1205,7 +1207,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1214,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>500</v>
@@ -1228,7 +1230,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1240,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>50</v>
@@ -1251,7 +1253,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1263,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
         <v>50</v>
@@ -1274,7 +1276,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>1001</v>
@@ -1286,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>50</v>
@@ -1297,7 +1299,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>1002</v>
@@ -1309,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>50</v>
@@ -1320,7 +1322,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>1003</v>
@@ -1332,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -1343,7 +1345,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>1004</v>
@@ -1355,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -1366,7 +1368,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1005</v>
@@ -1378,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -1389,7 +1391,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>1006</v>
@@ -1401,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>50</v>
